--- a/телеметрия/Логи спутник.xlsx
+++ b/телеметрия/Логи спутник.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 9\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ученик 9\Desktop\cansat\телеметрия\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CF0730FE-4652-486B-80AF-0FAAFF6DD204}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBA149D-81A9-46D7-BE29-DA5E69861D92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NDS_Sputnik" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6148" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6046" uniqueCount="773">
   <si>
     <t>Sporadic-D</t>
   </si>
@@ -2344,7 +2344,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00_ ;\-0.00\ "/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2507,7 +2510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2687,6 +2690,30 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2848,11 +2875,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2909,6 +2943,1127 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Вертикальное ускорение</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NDS_Sputnik!$B$344:$B$377</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NDS_Sputnik!$E$344:$E$377</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.47</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.49</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.51</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.61</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.73</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.82</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E3F8-4096-8807-72F6FCA58B03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="922031359"/>
+        <c:axId val="922009727"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="922031359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="922009727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="922009727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="922031359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>20637</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A2EDCF-8712-49AB-9E09-B2A445A58B1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3207,16 +4362,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="T374" sqref="T374"/>
+    <sheetView tabSelected="1" topLeftCell="C316" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I379" sqref="I379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="18" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="18" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -3226,7 +4383,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3282,7 +4439,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3338,7 +4495,7 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3394,7 +4551,7 @@
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3450,7 +4607,7 @@
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3506,7 +4663,7 @@
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3562,7 +4719,7 @@
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -3618,7 +4775,7 @@
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -3674,7 +4831,7 @@
       <c r="B9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3730,7 +4887,7 @@
       <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3786,7 +4943,7 @@
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3842,7 +4999,7 @@
       <c r="B12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -3898,7 +5055,7 @@
       <c r="B13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -3954,7 +5111,7 @@
       <c r="B14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -4010,7 +5167,7 @@
       <c r="B15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -4066,7 +5223,7 @@
       <c r="B16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -4122,7 +5279,7 @@
       <c r="B17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -4178,7 +5335,7 @@
       <c r="B18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -4234,7 +5391,7 @@
       <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -4290,7 +5447,7 @@
       <c r="B20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -4346,7 +5503,7 @@
       <c r="B21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -4402,7 +5559,7 @@
       <c r="B22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -4458,7 +5615,7 @@
       <c r="B23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -4514,7 +5671,7 @@
       <c r="B24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -4570,7 +5727,7 @@
       <c r="B25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -4626,7 +5783,7 @@
       <c r="B26" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -4682,7 +5839,7 @@
       <c r="B27" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -4738,7 +5895,7 @@
       <c r="B28" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -4794,7 +5951,7 @@
       <c r="B29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -4850,7 +6007,7 @@
       <c r="B30" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -4906,7 +6063,7 @@
       <c r="B31" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -4962,7 +6119,7 @@
       <c r="B32" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -5018,7 +6175,7 @@
       <c r="B33" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -5074,7 +6231,7 @@
       <c r="B34" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -5130,7 +6287,7 @@
       <c r="B35" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -5186,7 +6343,7 @@
       <c r="B36" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -5242,7 +6399,7 @@
       <c r="B37" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -5298,7 +6455,7 @@
       <c r="B38" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -5354,7 +6511,7 @@
       <c r="B39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -5410,7 +6567,7 @@
       <c r="B40" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -5466,7 +6623,7 @@
       <c r="B41" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -5522,7 +6679,7 @@
       <c r="B42" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -5578,7 +6735,7 @@
       <c r="B43" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -5634,7 +6791,7 @@
       <c r="B44" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -5690,7 +6847,7 @@
       <c r="B45" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -5746,7 +6903,7 @@
       <c r="B46" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -5802,7 +6959,7 @@
       <c r="B47" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -5858,7 +7015,7 @@
       <c r="B48" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -5914,7 +7071,7 @@
       <c r="B49" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -5970,7 +7127,7 @@
       <c r="B50" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -6026,7 +7183,7 @@
       <c r="B51" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -6082,7 +7239,7 @@
       <c r="B52" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -6138,7 +7295,7 @@
       <c r="B53" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -6194,7 +7351,7 @@
       <c r="B54" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -6250,7 +7407,7 @@
       <c r="B55" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -6306,7 +7463,7 @@
       <c r="B56" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -6362,7 +7519,7 @@
       <c r="B57" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -6418,7 +7575,7 @@
       <c r="B58" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -6474,7 +7631,7 @@
       <c r="B59" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -6530,7 +7687,7 @@
       <c r="B60" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -6586,7 +7743,7 @@
       <c r="B61" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -6642,7 +7799,7 @@
       <c r="B62" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -6698,7 +7855,7 @@
       <c r="B63" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -6754,7 +7911,7 @@
       <c r="B64" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -6810,7 +7967,7 @@
       <c r="B65" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -6866,7 +8023,7 @@
       <c r="B66" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -6922,7 +8079,7 @@
       <c r="B67" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -6978,7 +8135,7 @@
       <c r="B68" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -7034,7 +8191,7 @@
       <c r="B69" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -7090,7 +8247,7 @@
       <c r="B70" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -7146,7 +8303,7 @@
       <c r="B71" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -7202,7 +8359,7 @@
       <c r="B72" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -7258,7 +8415,7 @@
       <c r="B73" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="4" t="s">
         <v>236</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -7314,7 +8471,7 @@
       <c r="B74" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -7370,7 +8527,7 @@
       <c r="B75" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -7426,7 +8583,7 @@
       <c r="B76" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -7482,7 +8639,7 @@
       <c r="B77" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -7538,7 +8695,7 @@
       <c r="B78" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -7594,7 +8751,7 @@
       <c r="B79" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="4" t="s">
         <v>247</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -7650,7 +8807,7 @@
       <c r="B80" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -7706,7 +8863,7 @@
       <c r="B81" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -7762,7 +8919,7 @@
       <c r="B82" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -7818,7 +8975,7 @@
       <c r="B83" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="4" t="s">
         <v>236</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -7874,7 +9031,7 @@
       <c r="B84" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -7930,7 +9087,7 @@
       <c r="B85" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -7986,7 +9143,7 @@
       <c r="B86" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -8042,7 +9199,7 @@
       <c r="B87" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -8098,7 +9255,7 @@
       <c r="B88" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="4" t="s">
         <v>247</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -8154,7 +9311,7 @@
       <c r="B89" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -8210,7 +9367,7 @@
       <c r="B90" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="4" t="s">
         <v>236</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -8266,7 +9423,7 @@
       <c r="B91" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -8322,7 +9479,7 @@
       <c r="B92" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -8378,7 +9535,7 @@
       <c r="B93" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -8434,7 +9591,7 @@
       <c r="B94" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="4" t="s">
         <v>247</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -8490,7 +9647,7 @@
       <c r="B95" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -8546,7 +9703,7 @@
       <c r="B96" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -8602,7 +9759,7 @@
       <c r="B97" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -8658,7 +9815,7 @@
       <c r="B98" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -8714,7 +9871,7 @@
       <c r="B99" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -8770,7 +9927,7 @@
       <c r="B100" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -8826,7 +9983,7 @@
       <c r="B101" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="4" t="s">
         <v>237</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -8882,7 +10039,7 @@
       <c r="B102" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -8938,7 +10095,7 @@
       <c r="B103" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -8994,7 +10151,7 @@
       <c r="B104" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -9050,7 +10207,7 @@
       <c r="B105" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -9106,7 +10263,7 @@
       <c r="B106" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -9162,7 +10319,7 @@
       <c r="B107" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -9218,7 +10375,7 @@
       <c r="B108" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -9274,7 +10431,7 @@
       <c r="B109" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="4" t="s">
         <v>236</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -9330,7 +10487,7 @@
       <c r="B110" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -9386,7 +10543,7 @@
       <c r="B111" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -9442,7 +10599,7 @@
       <c r="B112" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -9498,7 +10655,7 @@
       <c r="B113" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -9554,7 +10711,7 @@
       <c r="B114" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -9610,7 +10767,7 @@
       <c r="B115" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -9666,7 +10823,7 @@
       <c r="B116" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -9722,7 +10879,7 @@
       <c r="B117" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -9778,7 +10935,7 @@
       <c r="B118" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -9834,7 +10991,7 @@
       <c r="B119" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -9890,7 +11047,7 @@
       <c r="B120" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -9946,7 +11103,7 @@
       <c r="B121" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -10002,7 +11159,7 @@
       <c r="B122" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -10058,7 +11215,7 @@
       <c r="B123" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -10114,7 +11271,7 @@
       <c r="B124" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -10170,7 +11327,7 @@
       <c r="B125" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -10226,7 +11383,7 @@
       <c r="B126" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -10282,7 +11439,7 @@
       <c r="B127" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -10338,7 +11495,7 @@
       <c r="B128" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -10394,7 +11551,7 @@
       <c r="B129" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -10450,7 +11607,7 @@
       <c r="B130" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -10506,7 +11663,7 @@
       <c r="B131" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -10562,7 +11719,7 @@
       <c r="B132" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D132" s="2" t="s">
@@ -10618,7 +11775,7 @@
       <c r="B133" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D133" s="2" t="s">
@@ -10674,7 +11831,7 @@
       <c r="B134" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -10730,7 +11887,7 @@
       <c r="B135" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -10786,7 +11943,7 @@
       <c r="B136" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -10842,7 +11999,7 @@
       <c r="B137" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -10898,7 +12055,7 @@
       <c r="B138" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D138" s="2" t="s">
@@ -10954,7 +12111,7 @@
       <c r="B139" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -11010,7 +12167,7 @@
       <c r="B140" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="4" t="s">
         <v>318</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -11066,7 +12223,7 @@
       <c r="B141" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -11122,7 +12279,7 @@
       <c r="B142" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -11178,7 +12335,7 @@
       <c r="B143" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -11234,7 +12391,7 @@
       <c r="B144" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -11290,7 +12447,7 @@
       <c r="B145" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -11346,7 +12503,7 @@
       <c r="B146" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -11402,7 +12559,7 @@
       <c r="B147" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -11458,7 +12615,7 @@
       <c r="B148" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D148" s="2" t="s">
@@ -11514,7 +12671,7 @@
       <c r="B149" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -11570,7 +12727,7 @@
       <c r="B150" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -11626,7 +12783,7 @@
       <c r="B151" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D151" s="2" t="s">
@@ -11682,7 +12839,7 @@
       <c r="B152" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D152" s="2" t="s">
@@ -11738,7 +12895,7 @@
       <c r="B153" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -11794,7 +12951,7 @@
       <c r="B154" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D154" s="2" t="s">
@@ -11850,7 +13007,7 @@
       <c r="B155" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D155" s="2" t="s">
@@ -11906,7 +13063,7 @@
       <c r="B156" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D156" s="2" t="s">
@@ -11962,7 +13119,7 @@
       <c r="B157" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D157" s="2" t="s">
@@ -12018,7 +13175,7 @@
       <c r="B158" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D158" s="2" t="s">
@@ -12074,7 +13231,7 @@
       <c r="B159" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D159" s="2" t="s">
@@ -12130,7 +13287,7 @@
       <c r="B160" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D160" s="2" t="s">
@@ -12186,7 +13343,7 @@
       <c r="B161" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D161" s="2" t="s">
@@ -12242,7 +13399,7 @@
       <c r="B162" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D162" s="2" t="s">
@@ -12298,7 +13455,7 @@
       <c r="B163" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -12354,7 +13511,7 @@
       <c r="B164" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D164" s="2" t="s">
@@ -12410,7 +13567,7 @@
       <c r="B165" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D165" s="2" t="s">
@@ -12466,7 +13623,7 @@
       <c r="B166" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D166" s="2" t="s">
@@ -12522,7 +13679,7 @@
       <c r="B167" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D167" s="2" t="s">
@@ -12578,7 +13735,7 @@
       <c r="B168" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D168" s="2" t="s">
@@ -12634,7 +13791,7 @@
       <c r="B169" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D169" s="2" t="s">
@@ -12690,7 +13847,7 @@
       <c r="B170" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D170" s="2" t="s">
@@ -12746,7 +13903,7 @@
       <c r="B171" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D171" s="2" t="s">
@@ -12802,7 +13959,7 @@
       <c r="B172" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D172" s="2" t="s">
@@ -12858,7 +14015,7 @@
       <c r="B173" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -12914,7 +14071,7 @@
       <c r="B174" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D174" s="2" t="s">
@@ -12970,7 +14127,7 @@
       <c r="B175" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D175" s="2" t="s">
@@ -13026,7 +14183,7 @@
       <c r="B176" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D176" s="2" t="s">
@@ -13082,7 +14239,7 @@
       <c r="B177" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D177" s="2" t="s">
@@ -13138,7 +14295,7 @@
       <c r="B178" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D178" s="2" t="s">
@@ -13194,7 +14351,7 @@
       <c r="B179" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D179" s="2" t="s">
@@ -13250,7 +14407,7 @@
       <c r="B180" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D180" s="2" t="s">
@@ -13306,7 +14463,7 @@
       <c r="B181" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D181" s="2" t="s">
@@ -13362,7 +14519,7 @@
       <c r="B182" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D182" s="2" t="s">
@@ -13418,7 +14575,7 @@
       <c r="B183" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D183" s="2" t="s">
@@ -13474,7 +14631,7 @@
       <c r="B184" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D184" s="2" t="s">
@@ -13530,7 +14687,7 @@
       <c r="B185" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D185" s="2" t="s">
@@ -13586,7 +14743,7 @@
       <c r="B186" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D186" s="2" t="s">
@@ -13642,7 +14799,7 @@
       <c r="B187" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D187" s="2" t="s">
@@ -13698,7 +14855,7 @@
       <c r="B188" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D188" s="2" t="s">
@@ -13754,7 +14911,7 @@
       <c r="B189" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -13810,7 +14967,7 @@
       <c r="B190" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D190" s="2" t="s">
@@ -13866,7 +15023,7 @@
       <c r="B191" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D191" s="2" t="s">
@@ -13922,7 +15079,7 @@
       <c r="B192" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D192" s="2" t="s">
@@ -13978,7 +15135,7 @@
       <c r="B193" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D193" s="2" t="s">
@@ -14034,7 +15191,7 @@
       <c r="B194" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D194" s="2" t="s">
@@ -14090,7 +15247,7 @@
       <c r="B195" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D195" s="2" t="s">
@@ -14146,7 +15303,7 @@
       <c r="B196" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D196" s="2" t="s">
@@ -14202,7 +15359,7 @@
       <c r="B197" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D197" s="2" t="s">
@@ -14258,7 +15415,7 @@
       <c r="B198" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D198" s="2" t="s">
@@ -14314,7 +15471,7 @@
       <c r="B199" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D199" s="2" t="s">
@@ -14370,7 +15527,7 @@
       <c r="B200" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -14426,7 +15583,7 @@
       <c r="B201" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D201" s="2" t="s">
@@ -14482,7 +15639,7 @@
       <c r="B202" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D202" s="2" t="s">
@@ -14538,7 +15695,7 @@
       <c r="B203" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D203" s="2" t="s">
@@ -14594,7 +15751,7 @@
       <c r="B204" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D204" s="2" t="s">
@@ -14650,7 +15807,7 @@
       <c r="B205" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D205" s="2" t="s">
@@ -14706,7 +15863,7 @@
       <c r="B206" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="4" t="s">
         <v>247</v>
       </c>
       <c r="D206" s="2" t="s">
@@ -14762,7 +15919,7 @@
       <c r="B207" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D207" s="2" t="s">
@@ -14818,7 +15975,7 @@
       <c r="B208" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D208" s="2" t="s">
@@ -14874,7 +16031,7 @@
       <c r="B209" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -14930,7 +16087,7 @@
       <c r="B210" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D210" s="2" t="s">
@@ -14986,7 +16143,7 @@
       <c r="B211" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D211" s="2" t="s">
@@ -15042,7 +16199,7 @@
       <c r="B212" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D212" s="2" t="s">
@@ -15098,7 +16255,7 @@
       <c r="B213" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D213" s="2" t="s">
@@ -15154,7 +16311,7 @@
       <c r="B214" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D214" s="2" t="s">
@@ -15210,7 +16367,7 @@
       <c r="B215" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D215" s="2" t="s">
@@ -15266,7 +16423,7 @@
       <c r="B216" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D216" s="2" t="s">
@@ -15322,7 +16479,7 @@
       <c r="B217" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="4" t="s">
         <v>236</v>
       </c>
       <c r="D217" s="2" t="s">
@@ -15378,7 +16535,7 @@
       <c r="B218" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D218" s="2" t="s">
@@ -15434,7 +16591,7 @@
       <c r="B219" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D219" s="2" t="s">
@@ -15490,7 +16647,7 @@
       <c r="B220" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="4" t="s">
         <v>318</v>
       </c>
       <c r="D220" s="2" t="s">
@@ -15546,7 +16703,7 @@
       <c r="B221" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="4" t="s">
         <v>236</v>
       </c>
       <c r="D221" s="2" t="s">
@@ -15602,7 +16759,7 @@
       <c r="B222" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D222" s="2" t="s">
@@ -15658,7 +16815,7 @@
       <c r="B223" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="4" t="s">
         <v>409</v>
       </c>
       <c r="D223" s="2" t="s">
@@ -15714,7 +16871,7 @@
       <c r="B224" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="4" t="s">
         <v>415</v>
       </c>
       <c r="D224" s="2" t="s">
@@ -15770,7 +16927,7 @@
       <c r="B225" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="4" t="s">
         <v>419</v>
       </c>
       <c r="D225" s="2" t="s">
@@ -15826,7 +16983,7 @@
       <c r="B226" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="4" t="s">
         <v>422</v>
       </c>
       <c r="D226" s="2" t="s">
@@ -15882,7 +17039,7 @@
       <c r="B227" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="4" t="s">
         <v>425</v>
       </c>
       <c r="D227" s="2" t="s">
@@ -15938,7 +17095,7 @@
       <c r="B228" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="4" t="s">
         <v>428</v>
       </c>
       <c r="D228" s="2" t="s">
@@ -15994,7 +17151,7 @@
       <c r="B229" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="4" t="s">
         <v>431</v>
       </c>
       <c r="D229" s="2" t="s">
@@ -16050,7 +17207,7 @@
       <c r="B230" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="4" t="s">
         <v>434</v>
       </c>
       <c r="D230" s="2" t="s">
@@ -16106,7 +17263,7 @@
       <c r="B231" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="4" t="s">
         <v>438</v>
       </c>
       <c r="D231" s="2" t="s">
@@ -16162,7 +17319,7 @@
       <c r="B232" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="4" t="s">
         <v>444</v>
       </c>
       <c r="D232" s="2" t="s">
@@ -16218,7 +17375,7 @@
       <c r="B233" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="4" t="s">
         <v>451</v>
       </c>
       <c r="D233" s="2" t="s">
@@ -16274,7 +17431,7 @@
       <c r="B234" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="4" t="s">
         <v>457</v>
       </c>
       <c r="D234" s="2" t="s">
@@ -16330,7 +17487,7 @@
       <c r="B235" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="4" t="s">
         <v>462</v>
       </c>
       <c r="D235" s="2" t="s">
@@ -16386,7 +17543,7 @@
       <c r="B236" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="4" t="s">
         <v>467</v>
       </c>
       <c r="D236" s="2" t="s">
@@ -16442,7 +17599,7 @@
       <c r="B237" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="4" t="s">
         <v>470</v>
       </c>
       <c r="D237" s="2" t="s">
@@ -16498,7 +17655,7 @@
       <c r="B238" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="4" t="s">
         <v>475</v>
       </c>
       <c r="D238" s="2" t="s">
@@ -16554,7 +17711,7 @@
       <c r="B239" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="4" t="s">
         <v>480</v>
       </c>
       <c r="D239" s="2" t="s">
@@ -16610,7 +17767,7 @@
       <c r="B240" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="4" t="s">
         <v>485</v>
       </c>
       <c r="D240" s="2" t="s">
@@ -16666,7 +17823,7 @@
       <c r="B241" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="4" t="s">
         <v>489</v>
       </c>
       <c r="D241" s="2" t="s">
@@ -16722,7 +17879,7 @@
       <c r="B242" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="4" t="s">
         <v>493</v>
       </c>
       <c r="D242" s="2" t="s">
@@ -16778,7 +17935,7 @@
       <c r="B243" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="4" t="s">
         <v>496</v>
       </c>
       <c r="D243" s="2" t="s">
@@ -16834,7 +17991,7 @@
       <c r="B244" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="4" t="s">
         <v>501</v>
       </c>
       <c r="D244" s="2" t="s">
@@ -16890,7 +18047,7 @@
       <c r="B245" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="4" t="s">
         <v>506</v>
       </c>
       <c r="D245" s="2" t="s">
@@ -16946,7 +18103,7 @@
       <c r="B246" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="4" t="s">
         <v>510</v>
       </c>
       <c r="D246" s="2" t="s">
@@ -17002,7 +18159,7 @@
       <c r="B247" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="4" t="s">
         <v>513</v>
       </c>
       <c r="D247" s="2" t="s">
@@ -17058,7 +18215,7 @@
       <c r="B248" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" s="4" t="s">
         <v>518</v>
       </c>
       <c r="D248" s="2" t="s">
@@ -17114,7 +18271,7 @@
       <c r="B249" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D249" s="2" t="s">
@@ -17170,7 +18327,7 @@
       <c r="B250" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D250" s="2" t="s">
@@ -17226,7 +18383,7 @@
       <c r="B251" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D251" s="2" t="s">
@@ -17282,7 +18439,7 @@
       <c r="B252" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D252" s="2" t="s">
@@ -17338,7 +18495,7 @@
       <c r="B253" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D253" s="2" t="s">
@@ -17394,7 +18551,7 @@
       <c r="B254" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D254" s="2" t="s">
@@ -17450,7 +18607,7 @@
       <c r="B255" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D255" s="2" t="s">
@@ -17506,7 +18663,7 @@
       <c r="B256" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D256" s="2" t="s">
@@ -17562,7 +18719,7 @@
       <c r="B257" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D257" s="2" t="s">
@@ -17618,7 +18775,7 @@
       <c r="B258" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D258" s="2" t="s">
@@ -17674,7 +18831,7 @@
       <c r="B259" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D259" s="2" t="s">
@@ -17730,7 +18887,7 @@
       <c r="B260" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="4" t="s">
         <v>551</v>
       </c>
       <c r="D260" s="2" t="s">
@@ -17786,7 +18943,7 @@
       <c r="B261" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D261" s="2" t="s">
@@ -17842,7 +18999,7 @@
       <c r="B262" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D262" s="2" t="s">
@@ -17898,7 +19055,7 @@
       <c r="B263" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D263" s="2" t="s">
@@ -17954,7 +19111,7 @@
       <c r="B264" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D264" s="2" t="s">
@@ -18010,7 +19167,7 @@
       <c r="B265" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D265" s="2" t="s">
@@ -18066,7 +19223,7 @@
       <c r="B266" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D266" s="2" t="s">
@@ -18122,7 +19279,7 @@
       <c r="B267" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D267" s="2" t="s">
@@ -18178,7 +19335,7 @@
       <c r="B268" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D268" s="2" t="s">
@@ -18234,7 +19391,7 @@
       <c r="B269" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D269" s="2" t="s">
@@ -18290,7 +19447,7 @@
       <c r="B270" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D270" s="2" t="s">
@@ -18346,7 +19503,7 @@
       <c r="B271" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D271" s="2" t="s">
@@ -18402,7 +19559,7 @@
       <c r="B272" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D272" s="2" t="s">
@@ -18458,7 +19615,7 @@
       <c r="B273" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C273" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D273" s="2" t="s">
@@ -18514,7 +19671,7 @@
       <c r="B274" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D274" s="2" t="s">
@@ -18570,7 +19727,7 @@
       <c r="B275" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C275" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D275" s="2" t="s">
@@ -18626,7 +19783,7 @@
       <c r="B276" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D276" s="2" t="s">
@@ -18682,7 +19839,7 @@
       <c r="B277" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D277" s="2" t="s">
@@ -18738,7 +19895,7 @@
       <c r="B278" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D278" s="2" t="s">
@@ -18794,7 +19951,7 @@
       <c r="B279" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D279" s="2" t="s">
@@ -18850,7 +20007,7 @@
       <c r="B280" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D280" s="2" t="s">
@@ -18906,7 +20063,7 @@
       <c r="B281" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D281" s="2" t="s">
@@ -18962,7 +20119,7 @@
       <c r="B282" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D282" s="2" t="s">
@@ -19018,7 +20175,7 @@
       <c r="B283" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D283" s="2" t="s">
@@ -19074,7 +20231,7 @@
       <c r="B284" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D284" s="2" t="s">
@@ -19130,7 +20287,7 @@
       <c r="B285" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D285" s="2" t="s">
@@ -19186,7 +20343,7 @@
       <c r="B286" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D286" s="2" t="s">
@@ -19242,7 +20399,7 @@
       <c r="B287" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D287" s="2" t="s">
@@ -19298,7 +20455,7 @@
       <c r="B288" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D288" s="2" t="s">
@@ -19354,7 +20511,7 @@
       <c r="B289" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C289" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D289" s="2" t="s">
@@ -19410,7 +20567,7 @@
       <c r="B290" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C290" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D290" s="2" t="s">
@@ -19466,7 +20623,7 @@
       <c r="B291" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D291" s="2" t="s">
@@ -19522,7 +20679,7 @@
       <c r="B292" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D292" s="2" t="s">
@@ -19578,7 +20735,7 @@
       <c r="B293" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C293" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D293" s="2" t="s">
@@ -19634,7 +20791,7 @@
       <c r="B294" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D294" s="2" t="s">
@@ -19690,7 +20847,7 @@
       <c r="B295" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C295" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D295" s="2" t="s">
@@ -19746,7 +20903,7 @@
       <c r="B296" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C296" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D296" s="2" t="s">
@@ -19802,7 +20959,7 @@
       <c r="B297" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C297" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D297" s="2" t="s">
@@ -19858,7 +21015,7 @@
       <c r="B298" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C298" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D298" s="2" t="s">
@@ -19914,7 +21071,7 @@
       <c r="B299" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D299" s="2" t="s">
@@ -19970,7 +21127,7 @@
       <c r="B300" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C300" s="4" t="s">
         <v>236</v>
       </c>
       <c r="D300" s="2" t="s">
@@ -20026,7 +21183,7 @@
       <c r="B301" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D301" s="2" t="s">
@@ -20082,7 +21239,7 @@
       <c r="B302" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C302" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D302" s="2" t="s">
@@ -20138,7 +21295,7 @@
       <c r="B303" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C303" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D303" s="2" t="s">
@@ -20194,7 +21351,7 @@
       <c r="B304" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C304" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D304" s="2" t="s">
@@ -20250,7 +21407,7 @@
       <c r="B305" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C305" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D305" s="2" t="s">
@@ -20306,7 +21463,7 @@
       <c r="B306" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C306" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D306" s="2" t="s">
@@ -20362,7 +21519,7 @@
       <c r="B307" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="C307" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D307" s="2" t="s">
@@ -20418,7 +21575,7 @@
       <c r="B308" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="C308" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D308" s="2" t="s">
@@ -20474,7 +21631,7 @@
       <c r="B309" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C309" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D309" s="2" t="s">
@@ -20530,7 +21687,7 @@
       <c r="B310" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="C310" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D310" s="2" t="s">
@@ -20586,7 +21743,7 @@
       <c r="B311" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="C311" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D311" s="2" t="s">
@@ -20642,7 +21799,7 @@
       <c r="B312" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="C312" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D312" s="2" t="s">
@@ -20698,7 +21855,7 @@
       <c r="B313" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C313" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D313" s="2" t="s">
@@ -20754,7 +21911,7 @@
       <c r="B314" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C314" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D314" s="2" t="s">
@@ -20810,7 +21967,7 @@
       <c r="B315" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C315" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D315" s="2" t="s">
@@ -20866,7 +22023,7 @@
       <c r="B316" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="C316" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D316" s="2" t="s">
@@ -20922,7 +22079,7 @@
       <c r="B317" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C317" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D317" s="2" t="s">
@@ -20978,7 +22135,7 @@
       <c r="B318" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="C318" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D318" s="2" t="s">
@@ -21034,7 +22191,7 @@
       <c r="B319" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="C319" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D319" s="2" t="s">
@@ -21090,7 +22247,7 @@
       <c r="B320" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C320" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D320" s="2" t="s">
@@ -21146,7 +22303,7 @@
       <c r="B321" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="C321" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D321" s="2" t="s">
@@ -21202,7 +22359,7 @@
       <c r="B322" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C322" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D322" s="2" t="s">
@@ -21258,7 +22415,7 @@
       <c r="B323" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C323" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D323" s="2" t="s">
@@ -21314,7 +22471,7 @@
       <c r="B324" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="C324" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D324" s="2" t="s">
@@ -21370,7 +22527,7 @@
       <c r="B325" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="C325" s="4" t="s">
         <v>730</v>
       </c>
       <c r="D325" s="2" t="s">
@@ -21426,7 +22583,7 @@
       <c r="B326" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="C326" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D326" s="2" t="s">
@@ -21482,7 +22639,7 @@
       <c r="B327" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="C327" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D327" s="2" t="s">
@@ -21538,7 +22695,7 @@
       <c r="B328" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C328" s="4" t="s">
         <v>738</v>
       </c>
       <c r="D328" s="2" t="s">
@@ -21594,7 +22751,7 @@
       <c r="B329" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C329" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D329" s="2" t="s">
@@ -21650,7 +22807,7 @@
       <c r="B330" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="C330" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D330" s="2" t="s">
@@ -21706,7 +22863,7 @@
       <c r="B331" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="C331" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D331" s="2" t="s">
@@ -21762,7 +22919,7 @@
       <c r="B332" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="C332" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D332" s="2" t="s">
@@ -21818,7 +22975,7 @@
       <c r="B333" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="C333" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D333" s="2" t="s">
@@ -21874,7 +23031,7 @@
       <c r="B343" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="C343" s="2" t="s">
+      <c r="C343" s="4" t="s">
         <v>757</v>
       </c>
       <c r="D343" s="2" t="s">
@@ -21928,38 +23085,39 @@
         <v>0</v>
       </c>
       <c r="B344" s="2">
-        <v>52980</v>
-      </c>
-      <c r="C344" s="2">
+        <v>1</v>
+      </c>
+      <c r="C344" s="4">
         <v>0.34</v>
       </c>
-      <c r="D344" s="2">
+      <c r="D344" s="10">
         <v>-0.12</v>
       </c>
-      <c r="E344" s="2">
+      <c r="E344" s="8">
         <v>10.24</v>
       </c>
       <c r="F344" s="2">
         <v>-0.08</v>
       </c>
-      <c r="G344" s="2">
+      <c r="G344" s="10">
         <v>-0.12</v>
       </c>
-      <c r="H344" s="2">
+      <c r="H344" s="8">
         <v>10.24</v>
       </c>
-      <c r="I344" s="2">
+      <c r="I344" s="9">
         <f>-I345</f>
         <v>0.12</v>
       </c>
-      <c r="J344" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K344" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="L344" s="3" t="s">
-        <v>114</v>
+      <c r="J344" s="10">
+        <v>-0.12</v>
+      </c>
+      <c r="K344" s="8">
+        <v>10.24</v>
+      </c>
+      <c r="L344" s="9">
+        <f>-L345</f>
+        <v>0.12</v>
       </c>
       <c r="M344" s="2">
         <v>993.25</v>
@@ -21985,37 +23143,37 @@
         <v>0</v>
       </c>
       <c r="B345" s="2">
-        <v>54047</v>
-      </c>
-      <c r="C345" s="2">
+        <v>2</v>
+      </c>
+      <c r="C345" s="4">
         <v>0.34</v>
       </c>
-      <c r="D345" s="2">
+      <c r="D345" s="10">
         <v>0.08</v>
       </c>
-      <c r="E345" s="2">
+      <c r="E345" s="8">
         <v>10.47</v>
       </c>
-      <c r="F345" s="2">
+      <c r="F345" s="9">
         <v>-0.12</v>
       </c>
-      <c r="G345" s="2">
+      <c r="G345" s="10">
         <v>0.08</v>
       </c>
-      <c r="H345" s="2">
+      <c r="H345" s="8">
         <v>10.47</v>
       </c>
-      <c r="I345" s="2">
+      <c r="I345" s="9">
         <v>-0.12</v>
       </c>
-      <c r="J345" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K345" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L345" s="3" t="s">
-        <v>152</v>
+      <c r="J345" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="K345" s="8">
+        <v>10.47</v>
+      </c>
+      <c r="L345" s="9">
+        <v>-0.12</v>
       </c>
       <c r="M345" s="2">
         <v>993.25</v>
@@ -22041,37 +23199,37 @@
         <v>0</v>
       </c>
       <c r="B346" s="2">
-        <v>55120</v>
-      </c>
-      <c r="C346" s="2">
+        <v>3</v>
+      </c>
+      <c r="C346" s="4">
         <v>1.01</v>
       </c>
-      <c r="D346" s="2">
+      <c r="D346" s="10">
         <v>0.08</v>
       </c>
-      <c r="E346" s="2">
+      <c r="E346" s="8">
         <v>10.36</v>
       </c>
-      <c r="F346" s="2">
+      <c r="F346" s="9">
         <v>0.27</v>
       </c>
-      <c r="G346" s="2">
+      <c r="G346" s="10">
         <v>0.08</v>
       </c>
-      <c r="H346" s="2">
+      <c r="H346" s="8">
         <v>10.36</v>
       </c>
-      <c r="I346" s="2">
+      <c r="I346" s="9">
         <v>0.27</v>
       </c>
-      <c r="J346" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K346" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="L346" s="3" t="s">
-        <v>27</v>
+      <c r="J346" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="K346" s="8">
+        <v>10.36</v>
+      </c>
+      <c r="L346" s="9">
+        <v>0.27</v>
       </c>
       <c r="M346" s="2">
         <v>993.17</v>
@@ -22097,37 +23255,37 @@
         <v>0</v>
       </c>
       <c r="B347" s="2">
-        <v>56188</v>
-      </c>
-      <c r="C347" s="2">
+        <v>4</v>
+      </c>
+      <c r="C347" s="4">
         <v>0.59</v>
       </c>
-      <c r="D347" s="2">
-        <v>0</v>
-      </c>
-      <c r="E347" s="2">
+      <c r="D347" s="10">
+        <v>0</v>
+      </c>
+      <c r="E347" s="8">
         <v>10.039999999999999</v>
       </c>
-      <c r="F347" s="2">
+      <c r="F347" s="9">
         <v>-0.43</v>
       </c>
-      <c r="G347" s="2">
-        <v>0</v>
-      </c>
-      <c r="H347" s="2">
+      <c r="G347" s="10">
+        <v>0</v>
+      </c>
+      <c r="H347" s="8">
         <v>10.039999999999999</v>
       </c>
-      <c r="I347" s="2">
+      <c r="I347" s="9">
         <v>-0.43</v>
       </c>
-      <c r="J347" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K347" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="L347" s="3" t="s">
-        <v>84</v>
+      <c r="J347" s="10">
+        <v>0</v>
+      </c>
+      <c r="K347" s="8">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="L347" s="9">
+        <v>-0.43</v>
       </c>
       <c r="M347" s="2">
         <v>993.22</v>
@@ -22153,37 +23311,37 @@
         <v>0</v>
       </c>
       <c r="B348" s="2">
-        <v>57255</v>
-      </c>
-      <c r="C348" s="2">
+        <v>5</v>
+      </c>
+      <c r="C348" s="4">
         <v>0.51</v>
       </c>
-      <c r="D348" s="2">
+      <c r="D348" s="10">
         <v>0.27</v>
       </c>
-      <c r="E348" s="2">
+      <c r="E348" s="8">
         <v>10.47</v>
       </c>
-      <c r="F348" s="2">
+      <c r="F348" s="9">
         <v>0.75</v>
       </c>
-      <c r="G348" s="2">
+      <c r="G348" s="10">
         <v>0.27</v>
       </c>
-      <c r="H348" s="2">
+      <c r="H348" s="8">
         <v>10.47</v>
       </c>
-      <c r="I348" s="2">
+      <c r="I348" s="9">
         <v>0.75</v>
       </c>
-      <c r="J348" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K348" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L348" s="3" t="s">
-        <v>407</v>
+      <c r="J348" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="K348" s="8">
+        <v>10.47</v>
+      </c>
+      <c r="L348" s="9">
+        <v>0.75</v>
       </c>
       <c r="M348" s="2">
         <v>993.23</v>
@@ -22209,37 +23367,37 @@
         <v>0</v>
       </c>
       <c r="B349" s="2">
-        <v>58323</v>
-      </c>
-      <c r="C349" s="2">
+        <v>6</v>
+      </c>
+      <c r="C349" s="4">
         <v>18.38</v>
       </c>
-      <c r="D349" s="2">
+      <c r="D349" s="10">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="E349" s="2">
+      <c r="E349" s="8">
         <v>68.25</v>
       </c>
-      <c r="F349" s="2">
+      <c r="F349" s="9">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G349" s="2">
+      <c r="G349" s="10">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="H349" s="2">
+      <c r="H349" s="8">
         <v>68.25</v>
       </c>
-      <c r="I349" s="2">
+      <c r="I349" s="9">
         <v>1.1399999999999999</v>
       </c>
-      <c r="J349" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="K349" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="L349" s="3" t="s">
-        <v>412</v>
+      <c r="J349" s="10">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="K349" s="8">
+        <v>68.25</v>
+      </c>
+      <c r="L349" s="9">
+        <v>1.1399999999999999</v>
       </c>
       <c r="M349" s="2">
         <v>991.12</v>
@@ -22265,37 +23423,37 @@
         <v>0</v>
       </c>
       <c r="B350" s="2">
-        <v>59392</v>
-      </c>
-      <c r="C350" s="2">
+        <v>7</v>
+      </c>
+      <c r="C350" s="4">
         <v>70.459999999999994</v>
       </c>
-      <c r="D350" s="2">
+      <c r="D350" s="10">
         <v>0.59</v>
       </c>
-      <c r="E350" s="2">
+      <c r="E350" s="8">
         <v>-1.96</v>
       </c>
-      <c r="F350" s="2">
+      <c r="F350" s="9">
         <v>0.24</v>
       </c>
-      <c r="G350" s="2">
+      <c r="G350" s="10">
         <v>0.59</v>
       </c>
-      <c r="H350" s="2">
+      <c r="H350" s="8">
         <v>-1.96</v>
       </c>
-      <c r="I350" s="2">
+      <c r="I350" s="9">
         <v>0.24</v>
       </c>
-      <c r="J350" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K350" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="L350" s="3" t="s">
-        <v>65</v>
+      <c r="J350" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="K350" s="8">
+        <v>-1.96</v>
+      </c>
+      <c r="L350" s="9">
+        <v>0.24</v>
       </c>
       <c r="M350" s="2">
         <v>984.99</v>
@@ -22321,37 +23479,37 @@
         <v>0</v>
       </c>
       <c r="B351" s="2">
-        <v>60460</v>
-      </c>
-      <c r="C351" s="2">
+        <v>8</v>
+      </c>
+      <c r="C351" s="4">
         <v>119.56</v>
       </c>
-      <c r="D351" s="2">
+      <c r="D351" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E351" s="2">
+      <c r="E351" s="8">
         <v>-2.59</v>
       </c>
-      <c r="F351" s="2">
+      <c r="F351" s="9">
         <v>-0.27</v>
       </c>
-      <c r="G351" s="2">
+      <c r="G351" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H351" s="2">
+      <c r="H351" s="8">
         <v>-2.59</v>
       </c>
-      <c r="I351" s="2">
+      <c r="I351" s="9">
         <v>-0.27</v>
       </c>
-      <c r="J351" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="K351" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="L351" s="3" t="s">
-        <v>111</v>
+      <c r="J351" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K351" s="8">
+        <v>-2.59</v>
+      </c>
+      <c r="L351" s="9">
+        <v>-0.27</v>
       </c>
       <c r="M351" s="2">
         <v>979.24</v>
@@ -22377,37 +23535,37 @@
         <v>0</v>
       </c>
       <c r="B352" s="2">
-        <v>61533</v>
-      </c>
-      <c r="C352" s="2">
+        <v>9</v>
+      </c>
+      <c r="C352" s="4">
         <v>154.37</v>
       </c>
-      <c r="D352" s="2">
+      <c r="D352" s="10">
         <v>0.59</v>
       </c>
-      <c r="E352" s="2">
+      <c r="E352" s="8">
         <v>-1.41</v>
       </c>
-      <c r="F352" s="2">
+      <c r="F352" s="9">
         <v>-0.27</v>
       </c>
-      <c r="G352" s="2">
+      <c r="G352" s="10">
         <v>0.59</v>
       </c>
-      <c r="H352" s="2">
+      <c r="H352" s="8">
         <v>-1.41</v>
       </c>
-      <c r="I352" s="2">
+      <c r="I352" s="9">
         <v>-0.27</v>
       </c>
-      <c r="J352" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K352" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L352" s="3" t="s">
-        <v>111</v>
+      <c r="J352" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="K352" s="8">
+        <v>-1.41</v>
+      </c>
+      <c r="L352" s="9">
+        <v>-0.27</v>
       </c>
       <c r="M352" s="2">
         <v>975.18</v>
@@ -22433,37 +23591,37 @@
         <v>0</v>
       </c>
       <c r="B353" s="2">
-        <v>62601</v>
-      </c>
-      <c r="C353" s="2">
+        <v>10</v>
+      </c>
+      <c r="C353" s="4">
         <v>176.89</v>
       </c>
-      <c r="D353" s="2">
+      <c r="D353" s="10">
         <v>0.43</v>
       </c>
-      <c r="E353" s="2">
+      <c r="E353" s="8">
         <v>-0.78</v>
       </c>
-      <c r="F353" s="2">
+      <c r="F353" s="9">
         <v>-0.12</v>
       </c>
-      <c r="G353" s="2">
+      <c r="G353" s="10">
         <v>0.43</v>
       </c>
-      <c r="H353" s="2">
+      <c r="H353" s="8">
         <v>-0.78</v>
       </c>
-      <c r="I353" s="2">
+      <c r="I353" s="9">
         <v>-0.12</v>
       </c>
-      <c r="J353" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K353" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L353" s="3" t="s">
-        <v>152</v>
+      <c r="J353" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="K353" s="8">
+        <v>-0.78</v>
+      </c>
+      <c r="L353" s="9">
+        <v>-0.12</v>
       </c>
       <c r="M353" s="2">
         <v>972.56</v>
@@ -22489,37 +23647,37 @@
         <v>0</v>
       </c>
       <c r="B354" s="2">
-        <v>63669</v>
-      </c>
-      <c r="C354" s="2">
+        <v>11</v>
+      </c>
+      <c r="C354" s="4">
         <v>188.09</v>
       </c>
-      <c r="D354" s="2">
+      <c r="D354" s="10">
         <v>0.24</v>
       </c>
-      <c r="E354" s="2">
+      <c r="E354" s="8">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="F354" s="2">
+      <c r="F354" s="9">
         <v>0.31</v>
       </c>
-      <c r="G354" s="2">
+      <c r="G354" s="10">
         <v>0.24</v>
       </c>
-      <c r="H354" s="2">
+      <c r="H354" s="8">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="I354" s="2">
+      <c r="I354" s="9">
         <v>0.31</v>
       </c>
-      <c r="J354" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K354" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="L354" s="3" t="s">
-        <v>212</v>
+      <c r="J354" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="K354" s="8">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="L354" s="9">
+        <v>0.31</v>
       </c>
       <c r="M354" s="2">
         <v>971.26</v>
@@ -22545,37 +23703,37 @@
         <v>0</v>
       </c>
       <c r="B355" s="2">
-        <v>64737</v>
-      </c>
-      <c r="C355" s="2">
+        <v>12</v>
+      </c>
+      <c r="C355" s="4">
         <v>188.35</v>
       </c>
-      <c r="D355" s="2">
+      <c r="D355" s="10">
         <v>0.08</v>
       </c>
-      <c r="E355" s="2">
+      <c r="E355" s="8">
         <v>-0.35</v>
       </c>
-      <c r="F355" s="2">
+      <c r="F355" s="9">
         <v>-0.12</v>
       </c>
-      <c r="G355" s="2">
+      <c r="G355" s="10">
         <v>0.08</v>
       </c>
-      <c r="H355" s="2">
+      <c r="H355" s="8">
         <v>-0.35</v>
       </c>
-      <c r="I355" s="2">
+      <c r="I355" s="9">
         <v>-0.12</v>
       </c>
-      <c r="J355" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K355" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L355" s="3" t="s">
-        <v>152</v>
+      <c r="J355" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="K355" s="8">
+        <v>-0.35</v>
+      </c>
+      <c r="L355" s="9">
+        <v>-0.12</v>
       </c>
       <c r="M355" s="2">
         <v>971.23</v>
@@ -22601,37 +23759,37 @@
         <v>0</v>
       </c>
       <c r="B356" s="2">
-        <v>269</v>
-      </c>
-      <c r="C356" s="2">
+        <v>13</v>
+      </c>
+      <c r="C356" s="4">
         <v>178.19</v>
       </c>
-      <c r="D356" s="2">
+      <c r="D356" s="10">
         <v>0.43</v>
       </c>
-      <c r="E356" s="2">
+      <c r="E356" s="8">
         <v>-0.71</v>
       </c>
-      <c r="F356" s="2">
+      <c r="F356" s="9">
         <v>-0.27</v>
       </c>
-      <c r="G356" s="2">
+      <c r="G356" s="10">
         <v>0.43</v>
       </c>
-      <c r="H356" s="2">
+      <c r="H356" s="8">
         <v>-0.71</v>
       </c>
-      <c r="I356" s="2">
+      <c r="I356" s="9">
         <v>-0.27</v>
       </c>
-      <c r="J356" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K356" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="L356" s="3" t="s">
-        <v>111</v>
+      <c r="J356" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="K356" s="8">
+        <v>-0.71</v>
+      </c>
+      <c r="L356" s="9">
+        <v>-0.27</v>
       </c>
       <c r="M356" s="2">
         <v>972.41</v>
@@ -22657,37 +23815,37 @@
         <v>0</v>
       </c>
       <c r="B357" s="2">
-        <v>1342</v>
-      </c>
-      <c r="C357" s="2">
+        <v>14</v>
+      </c>
+      <c r="C357" s="4">
         <v>166.92</v>
       </c>
-      <c r="D357" s="2">
+      <c r="D357" s="10">
         <v>-2.86</v>
       </c>
-      <c r="E357" s="2">
+      <c r="E357" s="8">
         <v>1.53</v>
       </c>
-      <c r="F357" s="2">
+      <c r="F357" s="9">
         <v>-2.2400000000000002</v>
       </c>
-      <c r="G357" s="2">
+      <c r="G357" s="10">
         <v>-2.86</v>
       </c>
-      <c r="H357" s="2">
+      <c r="H357" s="8">
         <v>1.53</v>
       </c>
-      <c r="I357" s="2">
+      <c r="I357" s="9">
         <v>-2.2400000000000002</v>
       </c>
-      <c r="J357" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="K357" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="L357" s="3" t="s">
-        <v>441</v>
+      <c r="J357" s="10">
+        <v>-2.86</v>
+      </c>
+      <c r="K357" s="8">
+        <v>1.53</v>
+      </c>
+      <c r="L357" s="9">
+        <v>-2.2400000000000002</v>
       </c>
       <c r="M357" s="2">
         <v>973.72</v>
@@ -22709,58 +23867,58 @@
       </c>
     </row>
     <row r="358" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B358" s="2">
-        <v>2410</v>
-      </c>
-      <c r="C358" s="2">
+      <c r="A358" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B358" s="6">
+        <v>15</v>
+      </c>
+      <c r="C358" s="7">
         <v>137.81</v>
       </c>
-      <c r="D358" s="2">
+      <c r="D358" s="10">
         <v>7.18</v>
       </c>
-      <c r="E358" s="2">
+      <c r="E358" s="8">
         <v>9.65</v>
       </c>
-      <c r="F358" s="2">
+      <c r="F358" s="9">
         <v>11.96</v>
       </c>
-      <c r="G358" s="2">
+      <c r="G358" s="10">
         <v>7.18</v>
       </c>
-      <c r="H358" s="2">
+      <c r="H358" s="8">
         <v>9.65</v>
       </c>
-      <c r="I358" s="2">
+      <c r="I358" s="9">
         <v>11.96</v>
       </c>
-      <c r="J358" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K358" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="L358" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="M358" s="2">
+      <c r="J358" s="10">
+        <v>7.18</v>
+      </c>
+      <c r="K358" s="8">
+        <v>9.65</v>
+      </c>
+      <c r="L358" s="9">
+        <v>11.96</v>
+      </c>
+      <c r="M358" s="6">
         <v>977.11</v>
       </c>
-      <c r="N358" s="2">
+      <c r="N358" s="6">
         <v>28</v>
       </c>
-      <c r="O358" s="2">
+      <c r="O358" s="6">
         <v>1</v>
       </c>
-      <c r="P358" s="2">
+      <c r="P358" s="6">
         <v>1</v>
       </c>
-      <c r="Q358" s="2">
-        <v>0</v>
-      </c>
-      <c r="R358" s="2">
+      <c r="Q358" s="6">
+        <v>0</v>
+      </c>
+      <c r="R358" s="6">
         <v>0</v>
       </c>
     </row>
@@ -22769,37 +23927,37 @@
         <v>0</v>
       </c>
       <c r="B359" s="2">
-        <v>3478</v>
-      </c>
-      <c r="C359" s="2">
+        <v>16</v>
+      </c>
+      <c r="C359" s="4">
         <v>120.5</v>
       </c>
-      <c r="D359" s="2">
+      <c r="D359" s="10">
         <v>1.53</v>
       </c>
-      <c r="E359" s="2">
+      <c r="E359" s="8">
         <v>18.989999999999998</v>
       </c>
-      <c r="F359" s="2">
+      <c r="F359" s="9">
         <v>1.33</v>
       </c>
-      <c r="G359" s="2">
+      <c r="G359" s="10">
         <v>1.53</v>
       </c>
-      <c r="H359" s="2">
+      <c r="H359" s="8">
         <v>18.989999999999998</v>
       </c>
-      <c r="I359" s="2">
+      <c r="I359" s="9">
         <v>1.33</v>
       </c>
-      <c r="J359" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="K359" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="L359" s="3" t="s">
-        <v>453</v>
+      <c r="J359" s="10">
+        <v>1.53</v>
+      </c>
+      <c r="K359" s="8">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="L359" s="9">
+        <v>1.33</v>
       </c>
       <c r="M359" s="2">
         <v>979.13</v>
@@ -22825,37 +23983,37 @@
         <v>0</v>
       </c>
       <c r="B360" s="2">
-        <v>4546</v>
-      </c>
-      <c r="C360" s="2">
+        <v>17</v>
+      </c>
+      <c r="C360" s="4">
         <v>112.72</v>
       </c>
-      <c r="D360" s="2">
+      <c r="D360" s="10">
         <v>2.16</v>
       </c>
-      <c r="E360" s="2">
+      <c r="E360" s="8">
         <v>12.87</v>
       </c>
-      <c r="F360" s="2">
+      <c r="F360" s="9">
         <v>0.75</v>
       </c>
-      <c r="G360" s="2">
+      <c r="G360" s="10">
         <v>2.16</v>
       </c>
-      <c r="H360" s="2">
+      <c r="H360" s="8">
         <v>12.87</v>
       </c>
-      <c r="I360" s="2">
+      <c r="I360" s="9">
         <v>0.75</v>
       </c>
-      <c r="J360" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="K360" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="L360" s="3" t="s">
-        <v>407</v>
+      <c r="J360" s="10">
+        <v>2.16</v>
+      </c>
+      <c r="K360" s="8">
+        <v>12.87</v>
+      </c>
+      <c r="L360" s="9">
+        <v>0.75</v>
       </c>
       <c r="M360" s="2">
         <v>980.04</v>
@@ -22881,37 +24039,37 @@
         <v>0</v>
       </c>
       <c r="B361" s="2">
-        <v>5615</v>
-      </c>
-      <c r="C361" s="2">
+        <v>18</v>
+      </c>
+      <c r="C361" s="4">
         <v>104</v>
       </c>
-      <c r="D361" s="2">
+      <c r="D361" s="10">
         <v>1.96</v>
       </c>
-      <c r="E361" s="2">
+      <c r="E361" s="8">
         <v>11.61</v>
       </c>
-      <c r="F361" s="2">
+      <c r="F361" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G361" s="2">
+      <c r="G361" s="10">
         <v>1.96</v>
       </c>
-      <c r="H361" s="2">
+      <c r="H361" s="8">
         <v>11.61</v>
       </c>
-      <c r="I361" s="2">
+      <c r="I361" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J361" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="K361" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="L361" s="3" t="s">
-        <v>237</v>
+      <c r="J361" s="10">
+        <v>1.96</v>
+      </c>
+      <c r="K361" s="8">
+        <v>11.61</v>
+      </c>
+      <c r="L361" s="9">
+        <v>1.1000000000000001</v>
       </c>
       <c r="M361" s="2">
         <v>981.06</v>
@@ -22937,37 +24095,37 @@
         <v>0</v>
       </c>
       <c r="B362" s="2">
-        <v>6689</v>
-      </c>
-      <c r="C362" s="2">
+        <v>19</v>
+      </c>
+      <c r="C362" s="4">
         <v>96.48</v>
       </c>
-      <c r="D362" s="2">
+      <c r="D362" s="10">
         <v>-0.98</v>
       </c>
-      <c r="E362" s="2">
+      <c r="E362" s="8">
         <v>10.59</v>
       </c>
-      <c r="F362" s="2">
+      <c r="F362" s="9">
         <v>2.9</v>
       </c>
-      <c r="G362" s="2">
+      <c r="G362" s="10">
         <v>-0.98</v>
       </c>
-      <c r="H362" s="2">
+      <c r="H362" s="8">
         <v>10.59</v>
       </c>
-      <c r="I362" s="2">
+      <c r="I362" s="9">
         <v>2.9</v>
       </c>
-      <c r="J362" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K362" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L362" s="3" t="s">
-        <v>28</v>
+      <c r="J362" s="10">
+        <v>-0.98</v>
+      </c>
+      <c r="K362" s="8">
+        <v>10.59</v>
+      </c>
+      <c r="L362" s="9">
+        <v>2.9</v>
       </c>
       <c r="M362" s="2">
         <v>981.94</v>
@@ -22993,37 +24151,37 @@
         <v>0</v>
       </c>
       <c r="B363" s="2">
-        <v>7757</v>
-      </c>
-      <c r="C363" s="2">
+        <v>20</v>
+      </c>
+      <c r="C363" s="4">
         <v>88.54</v>
       </c>
-      <c r="D363" s="2">
+      <c r="D363" s="10">
         <v>0.78</v>
       </c>
-      <c r="E363" s="2">
+      <c r="E363" s="8">
         <v>8.59</v>
       </c>
-      <c r="F363" s="2">
+      <c r="F363" s="9">
         <v>0.39</v>
       </c>
-      <c r="G363" s="2">
+      <c r="G363" s="10">
         <v>0.78</v>
       </c>
-      <c r="H363" s="2">
+      <c r="H363" s="8">
         <v>8.59</v>
       </c>
-      <c r="I363" s="2">
+      <c r="I363" s="9">
         <v>0.39</v>
       </c>
-      <c r="J363" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="K363" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="L363" s="3" t="s">
-        <v>208</v>
+      <c r="J363" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="K363" s="8">
+        <v>8.59</v>
+      </c>
+      <c r="L363" s="9">
+        <v>0.39</v>
       </c>
       <c r="M363" s="2">
         <v>982.87</v>
@@ -23049,37 +24207,37 @@
         <v>0</v>
       </c>
       <c r="B364" s="2">
-        <v>8825</v>
-      </c>
-      <c r="C364" s="2">
+        <v>21</v>
+      </c>
+      <c r="C364" s="4">
         <v>81.2</v>
       </c>
-      <c r="D364" s="2">
+      <c r="D364" s="10">
         <v>0.04</v>
       </c>
-      <c r="E364" s="2">
-        <v>8</v>
-      </c>
-      <c r="F364" s="2">
+      <c r="E364" s="8">
+        <v>8</v>
+      </c>
+      <c r="F364" s="9">
         <v>1.45</v>
       </c>
-      <c r="G364" s="2">
+      <c r="G364" s="10">
         <v>0.04</v>
       </c>
-      <c r="H364" s="2">
-        <v>8</v>
-      </c>
-      <c r="I364" s="2">
+      <c r="H364" s="8">
+        <v>8</v>
+      </c>
+      <c r="I364" s="9">
         <v>1.45</v>
       </c>
-      <c r="J364" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K364" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="L364" s="3" t="s">
-        <v>176</v>
+      <c r="J364" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="K364" s="8">
+        <v>8</v>
+      </c>
+      <c r="L364" s="9">
+        <v>1.45</v>
       </c>
       <c r="M364" s="2">
         <v>983.73</v>
@@ -23105,37 +24263,37 @@
         <v>0</v>
       </c>
       <c r="B365" s="2">
-        <v>9893</v>
-      </c>
-      <c r="C365" s="2">
+        <v>22</v>
+      </c>
+      <c r="C365" s="4">
         <v>73.19</v>
       </c>
-      <c r="D365" s="2">
+      <c r="D365" s="10">
         <v>0.71</v>
       </c>
-      <c r="E365" s="2">
+      <c r="E365" s="8">
         <v>10.59</v>
       </c>
-      <c r="F365" s="2">
+      <c r="F365" s="9">
         <v>0.82</v>
       </c>
-      <c r="G365" s="2">
+      <c r="G365" s="10">
         <v>0.71</v>
       </c>
-      <c r="H365" s="2">
+      <c r="H365" s="8">
         <v>10.59</v>
       </c>
-      <c r="I365" s="2">
+      <c r="I365" s="9">
         <v>0.82</v>
       </c>
-      <c r="J365" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="K365" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L365" s="3" t="s">
-        <v>482</v>
+      <c r="J365" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="K365" s="8">
+        <v>10.59</v>
+      </c>
+      <c r="L365" s="9">
+        <v>0.82</v>
       </c>
       <c r="M365" s="2">
         <v>984.67</v>
@@ -23161,37 +24319,37 @@
         <v>0</v>
       </c>
       <c r="B366" s="2">
-        <v>10961</v>
-      </c>
-      <c r="C366" s="2">
+        <v>23</v>
+      </c>
+      <c r="C366" s="4">
         <v>64.84</v>
       </c>
-      <c r="D366" s="2">
-        <v>0</v>
-      </c>
-      <c r="E366" s="2">
+      <c r="D366" s="10">
+        <v>0</v>
+      </c>
+      <c r="E366" s="8">
         <v>10.47</v>
       </c>
-      <c r="F366" s="2">
+      <c r="F366" s="9">
         <v>1.77</v>
       </c>
-      <c r="G366" s="2">
-        <v>0</v>
-      </c>
-      <c r="H366" s="2">
+      <c r="G366" s="10">
+        <v>0</v>
+      </c>
+      <c r="H366" s="8">
         <v>10.47</v>
       </c>
-      <c r="I366" s="2">
+      <c r="I366" s="9">
         <v>1.77</v>
       </c>
-      <c r="J366" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K366" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L366" s="3" t="s">
-        <v>486</v>
+      <c r="J366" s="10">
+        <v>0</v>
+      </c>
+      <c r="K366" s="8">
+        <v>10.47</v>
+      </c>
+      <c r="L366" s="9">
+        <v>1.77</v>
       </c>
       <c r="M366" s="2">
         <v>985.65</v>
@@ -23217,37 +24375,37 @@
         <v>0</v>
       </c>
       <c r="B367" s="2">
-        <v>12072</v>
-      </c>
-      <c r="C367" s="2">
+        <v>24</v>
+      </c>
+      <c r="C367" s="4">
         <v>56.42</v>
       </c>
-      <c r="D367" s="2">
+      <c r="D367" s="10">
         <v>0.59</v>
       </c>
-      <c r="E367" s="2">
+      <c r="E367" s="8">
         <v>9.49</v>
       </c>
-      <c r="F367" s="2">
+      <c r="F367" s="9">
         <v>1.61</v>
       </c>
-      <c r="G367" s="2">
+      <c r="G367" s="10">
         <v>0.59</v>
       </c>
-      <c r="H367" s="2">
+      <c r="H367" s="8">
         <v>9.49</v>
       </c>
-      <c r="I367" s="2">
+      <c r="I367" s="9">
         <v>1.61</v>
       </c>
-      <c r="J367" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K367" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L367" s="3" t="s">
-        <v>186</v>
+      <c r="J367" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="K367" s="8">
+        <v>9.49</v>
+      </c>
+      <c r="L367" s="9">
+        <v>1.61</v>
       </c>
       <c r="M367" s="2">
         <v>986.64</v>
@@ -23273,37 +24431,37 @@
         <v>0</v>
       </c>
       <c r="B368" s="2">
-        <v>13146</v>
-      </c>
-      <c r="C368" s="2">
+        <v>25</v>
+      </c>
+      <c r="C368" s="4">
         <v>48</v>
       </c>
-      <c r="D368" s="2">
+      <c r="D368" s="10">
         <v>0.2</v>
       </c>
-      <c r="E368" s="2">
+      <c r="E368" s="8">
         <v>9.18</v>
       </c>
-      <c r="F368" s="2">
+      <c r="F368" s="9">
         <v>-0.35</v>
       </c>
-      <c r="G368" s="2">
+      <c r="G368" s="10">
         <v>0.2</v>
       </c>
-      <c r="H368" s="2">
+      <c r="H368" s="8">
         <v>9.18</v>
       </c>
-      <c r="I368" s="2">
+      <c r="I368" s="9">
         <v>-0.35</v>
       </c>
-      <c r="J368" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K368" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L368" s="3" t="s">
-        <v>51</v>
+      <c r="J368" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="K368" s="8">
+        <v>9.18</v>
+      </c>
+      <c r="L368" s="9">
+        <v>-0.35</v>
       </c>
       <c r="M368" s="2">
         <v>987.63</v>
@@ -23329,37 +24487,37 @@
         <v>0</v>
       </c>
       <c r="B369" s="2">
-        <v>14213</v>
-      </c>
-      <c r="C369" s="2">
+        <v>26</v>
+      </c>
+      <c r="C369" s="4">
         <v>39.76</v>
       </c>
-      <c r="D369" s="2">
+      <c r="D369" s="10">
         <v>0.59</v>
       </c>
-      <c r="E369" s="2">
+      <c r="E369" s="8">
         <v>10.63</v>
       </c>
-      <c r="F369" s="2">
+      <c r="F369" s="9">
         <v>2.35</v>
       </c>
-      <c r="G369" s="2">
+      <c r="G369" s="10">
         <v>0.59</v>
       </c>
-      <c r="H369" s="2">
+      <c r="H369" s="8">
         <v>10.63</v>
       </c>
-      <c r="I369" s="2">
+      <c r="I369" s="9">
         <v>2.35</v>
       </c>
-      <c r="J369" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K369" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="L369" s="3" t="s">
-        <v>498</v>
+      <c r="J369" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="K369" s="8">
+        <v>10.63</v>
+      </c>
+      <c r="L369" s="9">
+        <v>2.35</v>
       </c>
       <c r="M369" s="2">
         <v>988.6</v>
@@ -23385,37 +24543,37 @@
         <v>0</v>
       </c>
       <c r="B370" s="2">
-        <v>15280</v>
-      </c>
-      <c r="C370" s="2">
+        <v>27</v>
+      </c>
+      <c r="C370" s="4">
         <v>30.76</v>
       </c>
-      <c r="D370" s="2">
+      <c r="D370" s="10">
         <v>-1.49</v>
       </c>
-      <c r="E370" s="2">
+      <c r="E370" s="8">
         <v>10.51</v>
       </c>
-      <c r="F370" s="2">
+      <c r="F370" s="9">
         <v>2.4700000000000002</v>
       </c>
-      <c r="G370" s="2">
+      <c r="G370" s="10">
         <v>-1.49</v>
       </c>
-      <c r="H370" s="2">
+      <c r="H370" s="8">
         <v>10.51</v>
       </c>
-      <c r="I370" s="2">
+      <c r="I370" s="9">
         <v>2.4700000000000002</v>
       </c>
-      <c r="J370" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="K370" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="L370" s="3" t="s">
-        <v>503</v>
+      <c r="J370" s="10">
+        <v>-1.49</v>
+      </c>
+      <c r="K370" s="8">
+        <v>10.51</v>
+      </c>
+      <c r="L370" s="9">
+        <v>2.4700000000000002</v>
       </c>
       <c r="M370" s="2">
         <v>989.66</v>
@@ -23441,37 +24599,37 @@
         <v>0</v>
       </c>
       <c r="B371" s="2">
-        <v>16347</v>
-      </c>
-      <c r="C371" s="2">
+        <v>28</v>
+      </c>
+      <c r="C371" s="4">
         <v>22.19</v>
       </c>
-      <c r="D371" s="2">
+      <c r="D371" s="10">
         <v>0.82</v>
       </c>
-      <c r="E371" s="2">
+      <c r="E371" s="8">
         <v>10.59</v>
       </c>
-      <c r="F371" s="2">
+      <c r="F371" s="9">
         <v>0.94</v>
       </c>
-      <c r="G371" s="2">
+      <c r="G371" s="10">
         <v>0.82</v>
       </c>
-      <c r="H371" s="2">
+      <c r="H371" s="8">
         <v>10.59</v>
       </c>
-      <c r="I371" s="2">
+      <c r="I371" s="9">
         <v>0.94</v>
       </c>
-      <c r="J371" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="K371" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L371" s="3" t="s">
-        <v>184</v>
+      <c r="J371" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="K371" s="8">
+        <v>10.59</v>
+      </c>
+      <c r="L371" s="9">
+        <v>0.94</v>
       </c>
       <c r="M371" s="2">
         <v>990.67</v>
@@ -23497,37 +24655,37 @@
         <v>0</v>
       </c>
       <c r="B372" s="2">
-        <v>17415</v>
-      </c>
-      <c r="C372" s="2">
+        <v>29</v>
+      </c>
+      <c r="C372" s="4">
         <v>13.97</v>
       </c>
-      <c r="D372" s="2">
+      <c r="D372" s="10">
         <v>0.43</v>
       </c>
-      <c r="E372" s="2">
+      <c r="E372" s="8">
         <v>9.61</v>
       </c>
-      <c r="F372" s="2">
+      <c r="F372" s="9">
         <v>0.82</v>
       </c>
-      <c r="G372" s="2">
+      <c r="G372" s="10">
         <v>0.43</v>
       </c>
-      <c r="H372" s="2">
+      <c r="H372" s="8">
         <v>9.61</v>
       </c>
-      <c r="I372" s="2">
+      <c r="I372" s="9">
         <v>0.82</v>
       </c>
-      <c r="J372" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K372" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L372" s="3" t="s">
-        <v>482</v>
+      <c r="J372" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="K372" s="8">
+        <v>9.61</v>
+      </c>
+      <c r="L372" s="9">
+        <v>0.82</v>
       </c>
       <c r="M372" s="2">
         <v>991.64</v>
@@ -23553,37 +24711,37 @@
         <v>0</v>
       </c>
       <c r="B373" s="2">
-        <v>18487</v>
-      </c>
-      <c r="C373" s="2">
+        <v>30</v>
+      </c>
+      <c r="C373" s="4">
         <v>6.52</v>
       </c>
-      <c r="D373" s="2">
+      <c r="D373" s="10">
         <v>0.71</v>
       </c>
-      <c r="E373" s="2">
+      <c r="E373" s="8">
         <v>9.73</v>
       </c>
-      <c r="F373" s="2">
+      <c r="F373" s="9">
         <v>2.71</v>
       </c>
-      <c r="G373" s="2">
+      <c r="G373" s="10">
         <v>0.71</v>
       </c>
-      <c r="H373" s="2">
+      <c r="H373" s="8">
         <v>9.73</v>
       </c>
-      <c r="I373" s="2">
+      <c r="I373" s="9">
         <v>2.71</v>
       </c>
-      <c r="J373" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="K373" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L373" s="3" t="s">
-        <v>514</v>
+      <c r="J373" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="K373" s="8">
+        <v>9.73</v>
+      </c>
+      <c r="L373" s="9">
+        <v>2.71</v>
       </c>
       <c r="M373" s="2">
         <v>992.52</v>
@@ -23609,37 +24767,37 @@
         <v>0</v>
       </c>
       <c r="B374" s="2">
-        <v>19554</v>
-      </c>
-      <c r="C374" s="2">
-        <v>-2.37</v>
-      </c>
-      <c r="D374" s="2">
+        <v>31</v>
+      </c>
+      <c r="C374" s="4">
+        <v>2.37</v>
+      </c>
+      <c r="D374" s="10">
         <v>1.06</v>
       </c>
-      <c r="E374" s="2">
+      <c r="E374" s="8">
         <v>9.9600000000000009</v>
       </c>
-      <c r="F374" s="2">
+      <c r="F374" s="9">
         <v>1.69</v>
       </c>
-      <c r="G374" s="2">
+      <c r="G374" s="10">
         <v>1.06</v>
       </c>
-      <c r="H374" s="2">
+      <c r="H374" s="8">
         <v>9.9600000000000009</v>
       </c>
-      <c r="I374" s="2">
+      <c r="I374" s="9">
         <v>1.69</v>
       </c>
-      <c r="J374" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K374" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="L374" s="3" t="s">
-        <v>520</v>
+      <c r="J374" s="10">
+        <v>1.06</v>
+      </c>
+      <c r="K374" s="8">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="L374" s="9">
+        <v>1.69</v>
       </c>
       <c r="M374" s="2">
         <v>993.57</v>
@@ -23665,37 +24823,37 @@
         <v>0</v>
       </c>
       <c r="B375" s="2">
-        <v>20621</v>
-      </c>
-      <c r="C375" s="2">
-        <v>-1.69</v>
-      </c>
-      <c r="D375" s="2">
+        <v>32</v>
+      </c>
+      <c r="C375" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="D375" s="10">
         <v>1.22</v>
       </c>
-      <c r="E375" s="2">
+      <c r="E375" s="8">
         <v>-2.82</v>
       </c>
-      <c r="F375" s="2">
+      <c r="F375" s="9">
         <v>9.61</v>
       </c>
-      <c r="G375" s="2">
+      <c r="G375" s="10">
         <v>1.22</v>
       </c>
-      <c r="H375" s="2">
+      <c r="H375" s="8">
         <v>-2.82</v>
       </c>
-      <c r="I375" s="2">
+      <c r="I375" s="9">
         <v>9.61</v>
       </c>
-      <c r="J375" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K375" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="L375" s="3" t="s">
-        <v>15</v>
+      <c r="J375" s="10">
+        <v>1.22</v>
+      </c>
+      <c r="K375" s="8">
+        <v>-2.82</v>
+      </c>
+      <c r="L375" s="9">
+        <v>9.61</v>
       </c>
       <c r="M375" s="2">
         <v>993.49</v>
@@ -23721,37 +24879,37 @@
         <v>0</v>
       </c>
       <c r="B376" s="2">
-        <v>21689</v>
-      </c>
-      <c r="C376" s="2">
-        <v>-0.85</v>
-      </c>
-      <c r="D376" s="2">
+        <v>33</v>
+      </c>
+      <c r="C376" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="D376" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E376" s="2">
+      <c r="E376" s="8">
         <v>-3.3</v>
       </c>
-      <c r="F376" s="2">
+      <c r="F376" s="9">
         <v>7.61</v>
       </c>
-      <c r="G376" s="2">
+      <c r="G376" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H376" s="2">
+      <c r="H376" s="8">
         <v>-3.3</v>
       </c>
-      <c r="I376" s="2">
+      <c r="I376" s="9">
         <v>7.61</v>
       </c>
-      <c r="J376" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="K376" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L376" s="3" t="s">
-        <v>527</v>
+      <c r="J376" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K376" s="8">
+        <v>-3.3</v>
+      </c>
+      <c r="L376" s="9">
+        <v>7.61</v>
       </c>
       <c r="M376" s="2">
         <v>993.39</v>
@@ -23777,37 +24935,37 @@
         <v>0</v>
       </c>
       <c r="B377" s="2">
-        <v>22756</v>
-      </c>
-      <c r="C377" s="2">
-        <v>-0.85</v>
-      </c>
-      <c r="D377" s="2">
+        <v>34</v>
+      </c>
+      <c r="C377" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="D377" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E377" s="2">
+      <c r="E377" s="8">
         <v>-3.26</v>
       </c>
-      <c r="F377" s="2">
+      <c r="F377" s="9">
         <v>7.61</v>
       </c>
-      <c r="G377" s="2">
+      <c r="G377" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H377" s="2">
+      <c r="H377" s="8">
         <v>-3.26</v>
       </c>
-      <c r="I377" s="2">
+      <c r="I377" s="9">
         <v>7.61</v>
       </c>
-      <c r="J377" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="K377" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="L377" s="3" t="s">
-        <v>527</v>
+      <c r="J377" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K377" s="8">
+        <v>-3.26</v>
+      </c>
+      <c r="L377" s="9">
+        <v>7.61</v>
       </c>
       <c r="M377" s="2">
         <v>993.39</v>
@@ -23831,5 +24989,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>